--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.79062366666667</v>
+        <v>16.158065</v>
       </c>
       <c r="H2">
-        <v>59.37187100000001</v>
+        <v>48.474195</v>
       </c>
       <c r="I2">
-        <v>0.04690933339254189</v>
+        <v>0.05027302757218571</v>
       </c>
       <c r="J2">
-        <v>0.04982137012915518</v>
+        <v>0.0511740544428244</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01506066666666667</v>
+        <v>0.044302</v>
       </c>
       <c r="N2">
-        <v>0.045182</v>
+        <v>0.132906</v>
       </c>
       <c r="O2">
-        <v>0.008628232818297613</v>
+        <v>0.02358675946309446</v>
       </c>
       <c r="P2">
-        <v>0.008628232818297613</v>
+        <v>0.02371390862331898</v>
       </c>
       <c r="Q2">
-        <v>0.2980599861691111</v>
+        <v>0.7158345956300001</v>
       </c>
       <c r="R2">
-        <v>2.682539875522</v>
+        <v>6.44251136067</v>
       </c>
       <c r="S2">
-        <v>0.0004047446498619941</v>
+        <v>0.00118577780882666</v>
       </c>
       <c r="T2">
-        <v>0.0004298703808009291</v>
+        <v>0.001213536850941888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.79062366666667</v>
+        <v>16.158065</v>
       </c>
       <c r="H3">
-        <v>59.37187100000001</v>
+        <v>48.474195</v>
       </c>
       <c r="I3">
-        <v>0.04690933339254189</v>
+        <v>0.05027302757218571</v>
       </c>
       <c r="J3">
-        <v>0.04982137012915518</v>
+        <v>0.0511740544428244</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.034921333333333</v>
+        <v>1.334208333333333</v>
       </c>
       <c r="N3">
-        <v>3.104764</v>
+        <v>4.002625</v>
       </c>
       <c r="O3">
-        <v>0.592904843474591</v>
+        <v>0.7103438000990813</v>
       </c>
       <c r="P3">
-        <v>0.5929048434745909</v>
+        <v>0.7141730509037375</v>
       </c>
       <c r="Q3">
-        <v>20.48173863260489</v>
+        <v>21.55822497354167</v>
       </c>
       <c r="R3">
-        <v>184.335647693444</v>
+        <v>194.024024761875</v>
       </c>
       <c r="S3">
-        <v>0.02781277097260246</v>
+        <v>0.03571113344811229</v>
       </c>
       <c r="T3">
-        <v>0.02953933165811641</v>
+        <v>0.03654713058854586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.79062366666667</v>
+        <v>16.158065</v>
       </c>
       <c r="H4">
-        <v>59.37187100000001</v>
+        <v>48.474195</v>
       </c>
       <c r="I4">
-        <v>0.04690933339254189</v>
+        <v>0.05027302757218571</v>
       </c>
       <c r="J4">
-        <v>0.04982137012915518</v>
+        <v>0.0511740544428244</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.695528</v>
+        <v>0.0302125</v>
       </c>
       <c r="N4">
-        <v>2.086584</v>
+        <v>0.060425</v>
       </c>
       <c r="O4">
-        <v>0.3984669237071115</v>
+        <v>0.01608539050784934</v>
       </c>
       <c r="P4">
-        <v>0.3984669237071114</v>
+        <v>0.01078140135557499</v>
       </c>
       <c r="Q4">
-        <v>13.76493289762934</v>
+        <v>0.4881755388125</v>
       </c>
       <c r="R4">
-        <v>123.884396078664</v>
+        <v>2.929053232875</v>
       </c>
       <c r="S4">
-        <v>0.01869181777007745</v>
+        <v>0.0008086612805104842</v>
       </c>
       <c r="T4">
-        <v>0.01985216809023784</v>
+        <v>0.0005517280199401352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>260.6166636666667</v>
+        <v>16.158065</v>
       </c>
       <c r="H5">
-        <v>781.849991</v>
+        <v>48.474195</v>
       </c>
       <c r="I5">
-        <v>0.6177346489682779</v>
+        <v>0.05027302757218571</v>
       </c>
       <c r="J5">
-        <v>0.6560823691590862</v>
+        <v>0.0511740544428244</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01506066666666667</v>
+        <v>0.4695343333333333</v>
       </c>
       <c r="N5">
-        <v>0.045182</v>
+        <v>1.408603</v>
       </c>
       <c r="O5">
-        <v>0.008628232818297613</v>
+        <v>0.2499840499299749</v>
       </c>
       <c r="P5">
-        <v>0.008628232818297613</v>
+        <v>0.2513316391173685</v>
       </c>
       <c r="Q5">
-        <v>3.925060699262445</v>
+        <v>7.586766277731666</v>
       </c>
       <c r="R5">
-        <v>35.325546293362</v>
+        <v>68.280896499585</v>
       </c>
       <c r="S5">
-        <v>0.005329958371227651</v>
+        <v>0.01256745503473628</v>
       </c>
       <c r="T5">
-        <v>0.005660831429084878</v>
+        <v>0.01286165898339651</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>781.849991</v>
       </c>
       <c r="I6">
-        <v>0.6177346489682779</v>
+        <v>0.8108637215090658</v>
       </c>
       <c r="J6">
-        <v>0.6560823691590862</v>
+        <v>0.8253965642040216</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.034921333333333</v>
+        <v>0.044302</v>
       </c>
       <c r="N6">
-        <v>3.104764</v>
+        <v>0.132906</v>
       </c>
       <c r="O6">
-        <v>0.592904843474591</v>
+        <v>0.02358675946309446</v>
       </c>
       <c r="P6">
-        <v>0.5929048434745909</v>
+        <v>0.02371390862331898</v>
       </c>
       <c r="Q6">
-        <v>269.7177450507916</v>
+        <v>11.54583943376067</v>
       </c>
       <c r="R6">
-        <v>2427.459705457124</v>
+        <v>103.912554903846</v>
       </c>
       <c r="S6">
-        <v>0.3662578653553683</v>
+        <v>0.01912564755658395</v>
       </c>
       <c r="T6">
-        <v>0.3889944143927068</v>
+        <v>0.01957337870153561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>781.849991</v>
       </c>
       <c r="I7">
-        <v>0.6177346489682779</v>
+        <v>0.8108637215090658</v>
       </c>
       <c r="J7">
-        <v>0.6560823691590862</v>
+        <v>0.8253965642040216</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.695528</v>
+        <v>1.334208333333333</v>
       </c>
       <c r="N7">
-        <v>2.086584</v>
+        <v>4.002625</v>
       </c>
       <c r="O7">
-        <v>0.3984669237071115</v>
+        <v>0.7103438000990813</v>
       </c>
       <c r="P7">
-        <v>0.3984669237071114</v>
+        <v>0.7141730509037375</v>
       </c>
       <c r="Q7">
-        <v>181.2661868467493</v>
+        <v>347.7169244695972</v>
       </c>
       <c r="R7">
-        <v>1631.395681620744</v>
+        <v>3129.452320226375</v>
       </c>
       <c r="S7">
-        <v>0.2461468252416821</v>
+        <v>0.575992017299233</v>
       </c>
       <c r="T7">
-        <v>0.2614271233372945</v>
+        <v>0.5894759824630488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.92354333333333</v>
+        <v>260.6166636666667</v>
       </c>
       <c r="H8">
-        <v>59.77063</v>
+        <v>781.849991</v>
       </c>
       <c r="I8">
-        <v>0.04722439031359254</v>
+        <v>0.8108637215090658</v>
       </c>
       <c r="J8">
-        <v>0.05015598514796319</v>
+        <v>0.8253965642040216</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.01506066666666667</v>
+        <v>0.0302125</v>
       </c>
       <c r="N8">
-        <v>0.045182</v>
+        <v>0.060425</v>
       </c>
       <c r="O8">
-        <v>0.008628232818297613</v>
+        <v>0.01608539050784934</v>
       </c>
       <c r="P8">
-        <v>0.008628232818297613</v>
+        <v>0.01078140135557499</v>
       </c>
       <c r="Q8">
-        <v>0.3000618449622222</v>
+        <v>7.873880951029167</v>
       </c>
       <c r="R8">
-        <v>2.70055660466</v>
+        <v>47.243285706175</v>
       </c>
       <c r="S8">
-        <v>0.0004074630343278351</v>
+        <v>0.01304305960912132</v>
       </c>
       <c r="T8">
-        <v>0.0004327575170877037</v>
+        <v>0.008898931636196176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.92354333333333</v>
+        <v>260.6166636666667</v>
       </c>
       <c r="H9">
-        <v>59.77063</v>
+        <v>781.849991</v>
       </c>
       <c r="I9">
-        <v>0.04722439031359254</v>
+        <v>0.8108637215090658</v>
       </c>
       <c r="J9">
-        <v>0.05015598514796319</v>
+        <v>0.8253965642040216</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.034921333333333</v>
+        <v>0.4695343333333333</v>
       </c>
       <c r="N9">
-        <v>3.104764</v>
+        <v>1.408603</v>
       </c>
       <c r="O9">
-        <v>0.592904843474591</v>
+        <v>0.2499840499299749</v>
       </c>
       <c r="P9">
-        <v>0.5929048434745909</v>
+        <v>0.2513316391173685</v>
       </c>
       <c r="Q9">
-        <v>20.61930003125778</v>
+        <v>122.3684714302859</v>
       </c>
       <c r="R9">
-        <v>185.57370028132</v>
+        <v>1101.316242872573</v>
       </c>
       <c r="S9">
-        <v>0.02799956974706358</v>
+        <v>0.2027029970441276</v>
       </c>
       <c r="T9">
-        <v>0.02973772652346702</v>
+        <v>0.207448271403241</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.92354333333333</v>
+        <v>10.026051</v>
       </c>
       <c r="H10">
-        <v>59.77063</v>
+        <v>30.078153</v>
       </c>
       <c r="I10">
-        <v>0.04722439031359254</v>
+        <v>0.03119432545686257</v>
       </c>
       <c r="J10">
-        <v>0.05015598514796319</v>
+        <v>0.03175341105018045</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.695528</v>
+        <v>0.044302</v>
       </c>
       <c r="N10">
-        <v>2.086584</v>
+        <v>0.132906</v>
       </c>
       <c r="O10">
-        <v>0.3984669237071115</v>
+        <v>0.02358675946309446</v>
       </c>
       <c r="P10">
-        <v>0.3984669237071114</v>
+        <v>0.02371390862331898</v>
       </c>
       <c r="Q10">
-        <v>13.85738224754667</v>
+        <v>0.444174111402</v>
       </c>
       <c r="R10">
-        <v>124.71644022792</v>
+        <v>3.997567002618</v>
       </c>
       <c r="S10">
-        <v>0.01881735753220113</v>
+        <v>0.0007357730511645018</v>
       </c>
       <c r="T10">
-        <v>0.01998550110740846</v>
+        <v>0.0007529974881226664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.97801200000001</v>
+        <v>10.026051</v>
       </c>
       <c r="H11">
-        <v>147.956024</v>
+        <v>30.078153</v>
       </c>
       <c r="I11">
-        <v>0.1753486543463721</v>
+        <v>0.03119432545686257</v>
       </c>
       <c r="J11">
-        <v>0.1241559632598098</v>
+        <v>0.03175341105018045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.01506066666666667</v>
+        <v>1.334208333333333</v>
       </c>
       <c r="N11">
-        <v>0.045182</v>
+        <v>4.002625</v>
       </c>
       <c r="O11">
-        <v>0.008628232818297613</v>
+        <v>0.7103438000990813</v>
       </c>
       <c r="P11">
-        <v>0.008628232818297613</v>
+        <v>0.7141730509037375</v>
       </c>
       <c r="Q11">
-        <v>1.114158179394667</v>
+        <v>13.376840794625</v>
       </c>
       <c r="R11">
-        <v>6.684949076368</v>
+        <v>120.391567151625</v>
       </c>
       <c r="S11">
-        <v>0.001512949014075692</v>
+        <v>0.02215869568655527</v>
       </c>
       <c r="T11">
-        <v>0.001071246556785644</v>
+        <v>0.02267743044630783</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.97801200000001</v>
+        <v>10.026051</v>
       </c>
       <c r="H12">
-        <v>147.956024</v>
+        <v>30.078153</v>
       </c>
       <c r="I12">
-        <v>0.1753486543463721</v>
+        <v>0.03119432545686257</v>
       </c>
       <c r="J12">
-        <v>0.1241559632598098</v>
+        <v>0.03175341105018045</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>1.034921333333333</v>
+        <v>0.0302125</v>
       </c>
       <c r="N12">
-        <v>3.104764</v>
+        <v>0.060425</v>
       </c>
       <c r="O12">
-        <v>0.592904843474591</v>
+        <v>0.01608539050784934</v>
       </c>
       <c r="P12">
-        <v>0.5929048434745909</v>
+        <v>0.01078140135557499</v>
       </c>
       <c r="Q12">
-        <v>76.56142281638934</v>
+        <v>0.3029120658375</v>
       </c>
       <c r="R12">
-        <v>459.368536898336</v>
+        <v>1.817472395025</v>
       </c>
       <c r="S12">
-        <v>0.1039650664587159</v>
+        <v>0.0005017729066025803</v>
       </c>
       <c r="T12">
-        <v>0.07361267196299461</v>
+        <v>0.0003423462689405453</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.026051</v>
+      </c>
+      <c r="H13">
+        <v>30.078153</v>
+      </c>
+      <c r="I13">
+        <v>0.03119432545686257</v>
+      </c>
+      <c r="J13">
+        <v>0.03175341105018045</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>73.97801200000001</v>
-      </c>
-      <c r="H13">
-        <v>147.956024</v>
-      </c>
-      <c r="I13">
-        <v>0.1753486543463721</v>
-      </c>
-      <c r="J13">
-        <v>0.1241559632598098</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.695528</v>
+        <v>0.4695343333333333</v>
       </c>
       <c r="N13">
-        <v>2.086584</v>
+        <v>1.408603</v>
       </c>
       <c r="O13">
-        <v>0.3984669237071115</v>
+        <v>0.2499840499299749</v>
       </c>
       <c r="P13">
-        <v>0.3984669237071114</v>
+        <v>0.2513316391173685</v>
       </c>
       <c r="Q13">
-        <v>51.453778730336</v>
+        <v>4.707575172251</v>
       </c>
       <c r="R13">
-        <v>308.7226723820161</v>
+        <v>42.36817655025899</v>
       </c>
       <c r="S13">
-        <v>0.06987063887358051</v>
+        <v>0.007798083812540222</v>
       </c>
       <c r="T13">
-        <v>0.04947204474002957</v>
+        <v>0.007980636846809415</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>47.58211666666667</v>
+        <v>16.977099</v>
       </c>
       <c r="H14">
-        <v>142.74635</v>
+        <v>33.954198</v>
       </c>
       <c r="I14">
-        <v>0.1127829729792156</v>
+        <v>0.05282131035632833</v>
       </c>
       <c r="J14">
-        <v>0.1197843123039854</v>
+        <v>0.03584533950516226</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01506066666666667</v>
+        <v>0.044302</v>
       </c>
       <c r="N14">
-        <v>0.045182</v>
+        <v>0.132906</v>
       </c>
       <c r="O14">
-        <v>0.008628232818297613</v>
+        <v>0.02358675946309446</v>
       </c>
       <c r="P14">
-        <v>0.008628232818297613</v>
+        <v>0.02371390862331898</v>
       </c>
       <c r="Q14">
-        <v>0.7166183984111112</v>
+        <v>0.752119439898</v>
       </c>
       <c r="R14">
-        <v>6.4495655857</v>
+        <v>4.512716639388</v>
       </c>
       <c r="S14">
-        <v>0.0009731177488044408</v>
+        <v>0.001245883541900177</v>
       </c>
       <c r="T14">
-        <v>0.001033526934538457</v>
+        <v>0.0008500331055972638</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>47.58211666666667</v>
+        <v>16.977099</v>
       </c>
       <c r="H15">
-        <v>142.74635</v>
+        <v>33.954198</v>
       </c>
       <c r="I15">
-        <v>0.1127829729792156</v>
+        <v>0.05282131035632833</v>
       </c>
       <c r="J15">
-        <v>0.1197843123039854</v>
+        <v>0.03584533950516226</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.034921333333333</v>
+        <v>1.334208333333333</v>
       </c>
       <c r="N15">
-        <v>3.104764</v>
+        <v>4.002625</v>
       </c>
       <c r="O15">
-        <v>0.592904843474591</v>
+        <v>0.7103438000990813</v>
       </c>
       <c r="P15">
-        <v>0.5929048434745909</v>
+        <v>0.7141730509037375</v>
       </c>
       <c r="Q15">
-        <v>49.24374762348889</v>
+        <v>22.650986961625</v>
       </c>
       <c r="R15">
-        <v>443.1937286114</v>
+        <v>135.90592176975</v>
       </c>
       <c r="S15">
-        <v>0.06686957094084084</v>
+        <v>0.03752129032472722</v>
       </c>
       <c r="T15">
-        <v>0.07102069893730595</v>
+        <v>0.025599775475082</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>16.977099</v>
+      </c>
+      <c r="H16">
+        <v>33.954198</v>
+      </c>
+      <c r="I16">
+        <v>0.05282131035632833</v>
+      </c>
+      <c r="J16">
+        <v>0.03584533950516226</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0302125</v>
+      </c>
+      <c r="N16">
+        <v>0.060425</v>
+      </c>
+      <c r="O16">
+        <v>0.01608539050784934</v>
+      </c>
+      <c r="P16">
+        <v>0.01078140135557499</v>
+      </c>
+      <c r="Q16">
+        <v>0.5129206035375</v>
+      </c>
+      <c r="R16">
+        <v>2.05168241415</v>
+      </c>
+      <c r="S16">
+        <v>0.0008496514042178478</v>
+      </c>
+      <c r="T16">
+        <v>0.000386462991932002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>16.977099</v>
+      </c>
+      <c r="H17">
+        <v>33.954198</v>
+      </c>
+      <c r="I17">
+        <v>0.05282131035632833</v>
+      </c>
+      <c r="J17">
+        <v>0.03584533950516226</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.408603</v>
+      </c>
+      <c r="O17">
+        <v>0.2499840499299749</v>
+      </c>
+      <c r="P17">
+        <v>0.2513316391173685</v>
+      </c>
+      <c r="Q17">
+        <v>7.971330860898998</v>
+      </c>
+      <c r="R17">
+        <v>47.82798516539399</v>
+      </c>
+      <c r="S17">
+        <v>0.01320448508548308</v>
+      </c>
+      <c r="T17">
+        <v>0.009009067932550994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>47.58211666666667</v>
-      </c>
-      <c r="H16">
-        <v>142.74635</v>
-      </c>
-      <c r="I16">
-        <v>0.1127829729792156</v>
-      </c>
-      <c r="J16">
-        <v>0.1197843123039854</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.695528</v>
-      </c>
-      <c r="N16">
-        <v>2.086584</v>
-      </c>
-      <c r="O16">
-        <v>0.3984669237071115</v>
-      </c>
-      <c r="P16">
-        <v>0.3984669237071114</v>
-      </c>
-      <c r="Q16">
-        <v>33.09469444093334</v>
-      </c>
-      <c r="R16">
-        <v>297.8522499684</v>
-      </c>
-      <c r="S16">
-        <v>0.04494028428957031</v>
-      </c>
-      <c r="T16">
-        <v>0.04773008643214094</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>17.628366</v>
+      </c>
+      <c r="H18">
+        <v>52.885098</v>
+      </c>
+      <c r="I18">
+        <v>0.05484761510555757</v>
+      </c>
+      <c r="J18">
+        <v>0.05583063079781116</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.044302</v>
+      </c>
+      <c r="N18">
+        <v>0.132906</v>
+      </c>
+      <c r="O18">
+        <v>0.02358675946309446</v>
+      </c>
+      <c r="P18">
+        <v>0.02371390862331898</v>
+      </c>
+      <c r="Q18">
+        <v>0.780971870532</v>
+      </c>
+      <c r="R18">
+        <v>7.028746834788</v>
+      </c>
+      <c r="S18">
+        <v>0.001293677504619173</v>
+      </c>
+      <c r="T18">
+        <v>0.001323962477121552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17.628366</v>
+      </c>
+      <c r="H19">
+        <v>52.885098</v>
+      </c>
+      <c r="I19">
+        <v>0.05484761510555757</v>
+      </c>
+      <c r="J19">
+        <v>0.05583063079781116</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.334208333333333</v>
+      </c>
+      <c r="N19">
+        <v>4.002625</v>
+      </c>
+      <c r="O19">
+        <v>0.7103438000990813</v>
+      </c>
+      <c r="P19">
+        <v>0.7141730509037375</v>
+      </c>
+      <c r="Q19">
+        <v>23.51991282025</v>
+      </c>
+      <c r="R19">
+        <v>211.67921538225</v>
+      </c>
+      <c r="S19">
+        <v>0.03896066334045354</v>
+      </c>
+      <c r="T19">
+        <v>0.03987273193075296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>17.628366</v>
+      </c>
+      <c r="H20">
+        <v>52.885098</v>
+      </c>
+      <c r="I20">
+        <v>0.05484761510555757</v>
+      </c>
+      <c r="J20">
+        <v>0.05583063079781116</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0302125</v>
+      </c>
+      <c r="N20">
+        <v>0.060425</v>
+      </c>
+      <c r="O20">
+        <v>0.01608539050784934</v>
+      </c>
+      <c r="P20">
+        <v>0.01078140135557499</v>
+      </c>
+      <c r="Q20">
+        <v>0.532597007775</v>
+      </c>
+      <c r="R20">
+        <v>3.19558204665</v>
+      </c>
+      <c r="S20">
+        <v>0.0008822453073971099</v>
+      </c>
+      <c r="T20">
+        <v>0.0006019324385661279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>17.628366</v>
+      </c>
+      <c r="H21">
+        <v>52.885098</v>
+      </c>
+      <c r="I21">
+        <v>0.05484761510555757</v>
+      </c>
+      <c r="J21">
+        <v>0.05583063079781116</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.408603</v>
+      </c>
+      <c r="O21">
+        <v>0.2499840499299749</v>
+      </c>
+      <c r="P21">
+        <v>0.2513316391173685</v>
+      </c>
+      <c r="Q21">
+        <v>8.277123077565999</v>
+      </c>
+      <c r="R21">
+        <v>74.49410769809398</v>
+      </c>
+      <c r="S21">
+        <v>0.01371102895308775</v>
+      </c>
+      <c r="T21">
+        <v>0.01403200395137051</v>
       </c>
     </row>
   </sheetData>
